--- a/common-util/excel-util/src/main/resources/test.xlsx
+++ b/common-util/excel-util/src/main/resources/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="24041" windowHeight="9929" tabRatio="500"/>
+    <workbookView windowWidth="17981" windowHeight="6386" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="文泉驿微米黑"/>
@@ -51,68 +51,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,17 +68,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,7 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +136,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,17 +165,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,16 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,187 +211,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,22 +424,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,37 +433,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,141 +457,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,7 +965,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/common-util/excel-util/src/main/resources/test.xlsx
+++ b/common-util/excel-util/src/main/resources/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="17981" windowHeight="6386" tabRatio="500"/>
+    <workbookView windowWidth="27030" windowHeight="8640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>姓名</t>
   </si>
@@ -23,7 +23,13 @@
     <t>年龄</t>
   </si>
   <si>
+    <t>详情</t>
+  </si>
+  <si>
     <t>Arvin</t>
+  </si>
+  <si>
+    <t>{"address":"Shenzhen", "school":"SU"}</t>
   </si>
   <si>
     <t>Bob</t>
@@ -34,12 +40,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="文泉驿微米黑"/>
@@ -51,9 +57,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Nimbus Roman No9 L"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,13 +154,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,24 +170,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,47 +198,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,43 +212,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,25 +222,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,157 +318,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +413,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -424,7 +450,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,42 +459,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +479,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -502,147 +504,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,7 +834,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -846,9 +858,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -872,7 +884,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -925,7 +937,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -950,7 +962,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -962,44 +974,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1025" width="11.6371681415929" customWidth="true"/>
+    <col min="1" max="2" width="11.6358974358974" customWidth="1"/>
+    <col min="3" max="3" width="21.9230769230769" customWidth="1"/>
+    <col min="4" max="1025" width="11.6358974358974" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" ht="16.25" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" ht="16.25" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>19</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
